--- a/TARA.xlsx
+++ b/TARA.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samaneh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samaneh\Downloads\ISO21434 Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6CC969-1702-4269-9F35-DE415534BEF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319BA5E5-408B-41F8-A005-784F751A1D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-57710" yWindow="-4820" windowWidth="38620" windowHeight="21100" xr2:uid="{939DB383-4640-4609-857D-3E44D6D568A1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="PKES relay replay attack" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -602,15 +601,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -660,7 +650,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -688,6 +678,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -810,186 +809,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>217170</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>47438</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9F16D45-0886-4591-B2C7-76E1B81B36CE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="8141970" cy="2257238"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>58595</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F0C2723-A3DE-40B7-ACB4-2A4C97165DBF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect l="14425" t="23084" r="7018"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8134350" y="0"/>
-          <a:ext cx="4724400" cy="2268395"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>98579</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>21981</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77BA3708-576C-4BF7-B890-D1607C392F2D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="2593340"/>
-          <a:ext cx="8023379" cy="2400691"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>489020</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>78397</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BC5F1F2-1A4A-456C-ACF8-3CEF8879529B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8353425" y="2432050"/>
-          <a:ext cx="8594795" cy="2802547"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1311,13 +1130,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FAD54DE-7DD8-482C-9DC2-C7CC81FA66B9}">
   <dimension ref="A1:AF9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="C8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="30.90625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="30.90625" style="29" customWidth="1"/>
     <col min="3" max="3" width="43.6328125" customWidth="1"/>
     <col min="4" max="4" width="17.36328125" customWidth="1"/>
     <col min="5" max="5" width="9.26953125" customWidth="1"/>
@@ -1358,18 +1177,18 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1384,20 +1203,20 @@
       <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="2" t="s">
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+      <c r="W1" s="30"/>
+      <c r="X1" s="30"/>
       <c r="Y1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1424,540 +1243,540 @@
       </c>
     </row>
     <row r="2" spans="1:32" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="9" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="V2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="W2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="X2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="13"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="10"/>
     </row>
-    <row r="5" spans="1:32" s="23" customFormat="1" ht="188.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="24">
+    <row r="5" spans="1:32" s="20" customFormat="1" ht="188.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="21">
         <v>1</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24" t="s">
+      <c r="E5" s="21"/>
+      <c r="F5" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="N5" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="P5" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q5" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="R5" s="24" t="s">
+      <c r="O5" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="S5" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="T5" s="17" t="s">
+      <c r="S5" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="T5" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="U5" s="17" t="s">
+      <c r="U5" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="V5" s="17" t="s">
+      <c r="V5" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="W5" s="17" t="s">
+      <c r="W5" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="X5" s="17" t="s">
+      <c r="X5" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="Y5" s="17" t="s">
+      <c r="Y5" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="Z5" s="24">
+      <c r="Z5" s="21">
         <v>5</v>
       </c>
-      <c r="AA5" s="15" t="s">
+      <c r="AA5" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB5" s="25" t="s">
+      <c r="AB5" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="AC5" s="20" t="s">
+      <c r="AC5" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AD5" s="20" t="s">
+      <c r="AD5" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="AE5" s="21" t="s">
+      <c r="AE5" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AF5" s="21" t="s">
+      <c r="AF5" s="18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:32" s="27" customFormat="1" ht="162.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="24">
+    <row r="6" spans="1:32" s="24" customFormat="1" ht="162.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="21">
         <v>2</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="26" t="s">
+      <c r="E6" s="21"/>
+      <c r="F6" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="K6" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="L6" s="28" t="s">
+      <c r="L6" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="O6" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="P6" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q6" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="R6" s="24" t="s">
+      <c r="O6" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q6" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="R6" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="S6" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="T6" s="17" t="s">
+      <c r="S6" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="T6" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="U6" s="17" t="s">
+      <c r="U6" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="V6" s="17" t="s">
+      <c r="V6" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="W6" s="17" t="s">
+      <c r="W6" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="X6" s="17" t="s">
+      <c r="X6" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="Y6" s="17" t="s">
+      <c r="Y6" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="Z6" s="24">
+      <c r="Z6" s="21">
         <v>5</v>
       </c>
-      <c r="AA6" s="15" t="s">
+      <c r="AA6" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB6" s="21" t="s">
+      <c r="AB6" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AC6" s="21" t="s">
+      <c r="AC6" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="AD6" s="20" t="s">
+      <c r="AD6" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="AE6" s="21" t="s">
+      <c r="AE6" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="AF6" s="21" t="s">
+      <c r="AF6" s="18" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:32" ht="172" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14">
+      <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="26" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="21" t="s">
+      <c r="G7" s="11"/>
+      <c r="H7" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="L7" s="28" t="s">
+      <c r="L7" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="N7" s="19" t="s">
+      <c r="N7" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="O7" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="P7" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q7" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="R7" s="24" t="s">
+      <c r="O7" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="R7" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="S7" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="T7" s="17" t="s">
+      <c r="S7" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="T7" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="U7" s="17" t="s">
+      <c r="U7" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="V7" s="17" t="s">
+      <c r="V7" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="W7" s="17" t="s">
+      <c r="W7" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="X7" s="17" t="s">
+      <c r="X7" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="Y7" s="17" t="s">
+      <c r="Y7" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="Z7" s="24">
+      <c r="Z7" s="21">
         <v>5</v>
       </c>
-      <c r="AA7" s="15" t="s">
+      <c r="AA7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB7" s="21" t="s">
+      <c r="AB7" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="AC7" s="21" t="s">
+      <c r="AC7" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="AD7" s="20" t="s">
+      <c r="AD7" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="AE7" s="21" t="s">
+      <c r="AE7" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="AF7" s="21" t="s">
+      <c r="AF7" s="18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="144.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14">
+      <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="26" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="K8" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="L8" s="28" t="s">
+      <c r="L8" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="M8" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="N8" s="19" t="s">
+      <c r="N8" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="O8" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q8" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="R8" s="24" t="s">
+      <c r="O8" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="S8" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="T8" s="17" t="s">
+      <c r="S8" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="T8" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="U8" s="17" t="s">
+      <c r="U8" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="V8" s="17" t="s">
+      <c r="V8" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="W8" s="17" t="s">
+      <c r="W8" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="X8" s="17" t="s">
+      <c r="X8" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="Y8" s="17" t="s">
+      <c r="Y8" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="Z8" s="24">
+      <c r="Z8" s="21">
         <v>5</v>
       </c>
-      <c r="AA8" s="15" t="s">
+      <c r="AA8" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB8" s="21" t="s">
+      <c r="AB8" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="AC8" s="21" t="s">
+      <c r="AC8" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="AD8" s="20" t="s">
+      <c r="AD8" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="AE8" s="21" t="s">
+      <c r="AE8" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="AF8" s="21" t="s">
+      <c r="AF8" s="18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:32" ht="281.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14">
+      <c r="A9" s="11">
         <v>5</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="13" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="L9" s="28" t="s">
+      <c r="L9" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="M9" s="16" t="s">
+      <c r="M9" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="N9" s="19" t="s">
+      <c r="N9" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="O9" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="P9" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q9" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="R9" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="S9" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="T9" s="17" t="s">
+      <c r="O9" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q9" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="R9" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="S9" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="T9" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="U9" s="17" t="s">
+      <c r="U9" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="V9" s="17" t="s">
+      <c r="V9" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="W9" s="17" t="s">
+      <c r="W9" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="X9" s="17" t="s">
+      <c r="X9" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="Y9" s="17" t="s">
+      <c r="Y9" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="Z9" s="24">
+      <c r="Z9" s="21">
         <v>5</v>
       </c>
-      <c r="AA9" s="15" t="s">
+      <c r="AA9" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="AB9" s="21" t="s">
+      <c r="AB9" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="AC9" s="21" t="s">
+      <c r="AC9" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="AD9" s="20" t="s">
+      <c r="AD9" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="AE9" s="21" t="s">
+      <c r="AE9" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="AF9" s="21" t="s">
+      <c r="AF9" s="18" t="s">
         <v>109</v>
       </c>
     </row>
@@ -2010,19 +1829,4 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED36CF4C-8FD2-42C9-A96D-3F08E87CDDF8}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R35" sqref="R35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>